--- a/data/WorkTypeGroups.xlsx
+++ b/data/WorkTypeGroups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pravi\eclipse-workspace\SalesForce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2196F1FF-A4B5-4F00-BFD2-73E9F3D77139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FE9A34-29EA-4D4A-8608-960026BB1B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>WorkTypeGroup Name</t>
   </si>
@@ -35,10 +35,13 @@
     <t>WorkTypeGroup Description</t>
   </si>
   <si>
-    <t>ProTest</t>
+    <t>TestProfileTest</t>
   </si>
   <si>
-    <t>TestProfileTest</t>
+    <t>ProTest786</t>
+  </si>
+  <si>
+    <t>TestProfile</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,10 +404,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -417,7 +420,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,10 +439,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -452,7 +455,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +470,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
